--- a/Login_details.xlsx
+++ b/Login_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D74990-DF2D-4E04-A342-BA9BFF7BF035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0925D-9E6B-40C8-8A96-00703A8642E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E512938B-D9D3-467C-8093-871530A046DD}"/>
   </bookViews>
@@ -82,12 +82,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,13 +108,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,77 +438,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAFC2B4-97BB-43C9-AC44-5F468CE4C79B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.35069444444444442</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.3527777777777778</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="6">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>0.35347222222222224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.36458333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>0.36736111111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.3611111111111111</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>0.36041666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.3298611111111111</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.35416666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Login_details.xlsx
+++ b/Login_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0925D-9E6B-40C8-8A96-00703A8642E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2265932-2ACA-4BEA-AE69-BEA994FA09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E512938B-D9D3-467C-8093-871530A046DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Team Member</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>SANTHOSH</t>
+  </si>
+  <si>
+    <t>work from home</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -124,6 +130,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAFC2B4-97BB-43C9-AC44-5F468CE4C79B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,9 +457,10 @@
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +470,11 @@
       <c r="C1" s="4">
         <v>45664</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,8 +484,11 @@
       <c r="C2" s="6">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -484,8 +498,11 @@
       <c r="C3" s="6">
         <v>0.3611111111111111</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -495,8 +512,11 @@
       <c r="C4" s="6">
         <v>0.35347222222222224</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -506,8 +526,11 @@
       <c r="C5" s="6">
         <v>0.36736111111111114</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>0.36944444444444446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -517,13 +540,16 @@
       <c r="C6" s="6">
         <v>0.36041666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>0.36875000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -531,7 +557,18 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="C8" s="6">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Login_details.xlsx
+++ b/Login_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2265932-2ACA-4BEA-AE69-BEA994FA09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783F8FF-9FF5-458E-9D5F-3CF28B249526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E512938B-D9D3-467C-8093-871530A046DD}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +548,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="2">
+        <v>8.0555555555555561E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
